--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_PP-PMC\REGRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,9 +552,6 @@
     <t>Octubre</t>
   </si>
   <si>
-    <t>Martes 04 de Noviembre de 2015</t>
-  </si>
-  <si>
     <t>Análisis</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>Martes 12 de Noviembre de 2015</t>
   </si>
 </sst>
 </file>
@@ -2077,133 +2077,11 @@
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="45" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2217,8 +2095,130 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2858,230 +2858,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="144"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="144"/>
-      <c r="B2" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="145"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="145"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:9" ht="24">
-      <c r="A4" s="144"/>
-      <c r="B4" s="151" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="D4" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="E4" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="F4" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="151" t="s">
+      <c r="G4" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147">
+      <c r="A5" s="103"/>
+      <c r="B5" s="107">
         <v>1</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="109">
+        <v>42271</v>
+      </c>
+      <c r="E5" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="149">
-        <v>42271</v>
-      </c>
-      <c r="E5" s="147" t="s">
+      <c r="F5" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="G5" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="H5" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="145"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="145"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="150"/>
-      <c r="B7" s="147">
+      <c r="A7" s="105"/>
+      <c r="B7" s="107">
         <v>2</v>
       </c>
-      <c r="C7" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="149">
+      <c r="C7" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="109">
         <v>42297</v>
       </c>
-      <c r="E7" s="147" t="s">
+      <c r="E7" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="G7" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="H7" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="145"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="150"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="145"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="145"/>
-      <c r="B9" s="147">
+      <c r="A9" s="104"/>
+      <c r="B9" s="107">
         <v>3</v>
       </c>
-      <c r="C9" s="148" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="149">
-        <v>42313</v>
-      </c>
-      <c r="E9" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="147" t="s">
+      <c r="C9" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="109">
+        <v>42320</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="147" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="145"/>
+      <c r="H9" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="145"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="145"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="145"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="145"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3096,14 +3104,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,8 +3118,8 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -3139,32 +3139,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
       <c r="G1" s="90"/>
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
       <c r="G2" s="90"/>
       <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
       <c r="G3" s="90"/>
@@ -3172,10 +3172,10 @@
       <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="92"/>
       <c r="F4" s="92"/>
       <c r="G4" s="90"/>
@@ -3183,19 +3183,19 @@
     </row>
     <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:12" s="91" customFormat="1" ht="20.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:12" ht="9" customHeight="1">
@@ -3212,16 +3212,16 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="110" t="s">
+      <c r="A8" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -3229,49 +3229,49 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
       <c r="G9" s="79"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="80"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="113">
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="121">
         <f>AVERAGE(F15:F16,F18,F21,F22,F23,F25,F26,F27,F28,F29,F30,F31,F32)/4.5</f>
         <v>0.14761904761904757</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="81"/>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
@@ -3285,26 +3285,26 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:12" s="75" customFormat="1" ht="14.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="104" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="125" t="s">
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
     </row>
     <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
@@ -4072,7 +4072,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4098,38 +4098,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
       <c r="H2" s="73" t="s">
         <v>65</v>
       </c>
       <c r="O2" s="21"/>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="142"/>
-      <c r="N3" s="143"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="151"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="132" t="s">
+      <c r="P3" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="133"/>
+      <c r="Q3" s="141"/>
       <c r="R3" s="59" t="s">
         <v>46</v>
       </c>
@@ -4138,16 +4138,16 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="22.5" customHeight="1" thickBot="1">
-      <c r="L4" s="139" t="s">
+      <c r="L4" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="140"/>
+      <c r="M4" s="148"/>
       <c r="N4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="21"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="143"/>
       <c r="R4" s="47" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="144" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1">
-      <c r="C6" s="137"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="19.5" customHeight="1">
-      <c r="C7" s="137"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="29.25" customHeight="1">
-      <c r="C8" s="137"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C9" s="138"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
@@ -4420,14 +4420,14 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="53.25" customHeight="1">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="72" t="s">
         <v>64</v>
       </c>

--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="432"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="432" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Sit_estrategia">Tablas!$G$9:$G$11</definedName>
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -64,9 +64,6 @@
     <t>No incurrido</t>
   </si>
   <si>
-    <t>Desaparecio</t>
-  </si>
-  <si>
     <t>Responsable</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Monitoreo</t>
   </si>
   <si>
-    <t>Categoria Origen</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -161,16 +155,10 @@
     <t>Int - El proyecto</t>
   </si>
   <si>
-    <t>Int - La tecnologia</t>
-  </si>
-  <si>
     <t>Ext - Usuarios</t>
   </si>
   <si>
     <t>Ext - Coordinadores</t>
-  </si>
-  <si>
-    <t>Ext - Tecnologia</t>
   </si>
   <si>
     <t>Ext - Producto</t>
@@ -275,9 +263,6 @@
     <t>Debe tener estrategia</t>
   </si>
   <si>
-    <t>El riesgo de estar plenamente identificado para poder monitoreralo</t>
-  </si>
-  <si>
     <t>Rol responsable</t>
   </si>
   <si>
@@ -347,9 +332,6 @@
     <t>Línea de Producción/Servicio</t>
   </si>
   <si>
-    <t>Nr</t>
-  </si>
-  <si>
     <t>Descripción de Riesgos</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>Roger Apaestegui</t>
   </si>
   <si>
-    <t>Que no se lleve a cabo el proyecto por falta de experiencia en documentacion de Proyecto</t>
-  </si>
-  <si>
     <t>Edwar Gaspar</t>
   </si>
   <si>
@@ -387,9 +366,6 @@
   </si>
   <si>
     <t>Julio Leonardo</t>
-  </si>
-  <si>
-    <t>Falta de Coordinacion y Trabajo en Grupo</t>
   </si>
   <si>
     <t>Pocas Descargas del Producto</t>
@@ -408,15 +384,6 @@
     <t>Perdida de Documentos</t>
   </si>
   <si>
-    <t>Documentos no cumplen standares de calidad</t>
-  </si>
-  <si>
-    <t>Buscar Informacion sobre los Procesos CMMI y hacer las consultas del caso al Profesor del Curso</t>
-  </si>
-  <si>
-    <t>REGISTRO DE RIESGOS PROYECTO UTP-GPS ALARM</t>
-  </si>
-  <si>
     <t>Jefe de Proyecto</t>
   </si>
   <si>
@@ -429,18 +396,12 @@
     <t>UTP-GPS-ALARM</t>
   </si>
   <si>
-    <t>Que no termine a tiempo el proyecto por falta de experiencia en la Gestion de Procesos usando la metodología CMMI</t>
-  </si>
-  <si>
     <t>Que no se termine el proyecto en el plazo indicado.</t>
   </si>
   <si>
     <t>Trabajar tiempo extra, priorizar el trabajo en equipo, para terminar el proyecto en la fecha establecida.</t>
   </si>
   <si>
-    <t>Prestar atencion a clases, llegar temprano y anotar a las recomendaciones del profesor referente a los procesos de gestion usando la metodología CMMI</t>
-  </si>
-  <si>
     <t>Que alguno de los integrantes se retire del curso.</t>
   </si>
   <si>
@@ -450,18 +411,12 @@
     <t>No contar con los equipos de computo en la fecha indicada para desarrollo de Software</t>
   </si>
   <si>
-    <t>Contar con equipos de contigencia (laptops personales)    Usar Laboratorio de la UTP</t>
-  </si>
-  <si>
     <t>No disponer de tiempo para Reuniones</t>
   </si>
   <si>
     <t>Organizar mejor el tiempo a disponer para realizar el proyecto. Respetar los compromisos al inicio del proyecto. Contar con sábados a tiempo completo y domingos como alternativa.</t>
   </si>
   <si>
-    <t>Estudiar por otros medios el desarrollo de Android, tutoriales, guias, etc. Programar una capacitación para el personal que tiene dificultades en el manejo de esta plataforma de software.</t>
-  </si>
-  <si>
     <t>Errores encontrados en el desarrollo del producto</t>
   </si>
   <si>
@@ -489,21 +444,12 @@
     <t>Establecer controles de calidad más rigurosos e informar al cliente de manera detallada sobre el avance del producto.</t>
   </si>
   <si>
-    <t>Señales de inconformidad por parte del cliente, en reuniones de Kickoff meeting</t>
-  </si>
-  <si>
-    <t>Pérdida de documentacion referente al proyecto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roger Apaestegui </t>
   </si>
   <si>
     <t>Que no se ejecute un buen control de QA debido a falta de experiencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Que la Induccion de Personal no cumpla las expectativas </t>
-  </si>
-  <si>
     <t>Que GC no tenga un buen control de Repositorio de Datos</t>
   </si>
   <si>
@@ -513,36 +459,18 @@
     <t>Que se tome demasiado tiempo en el proceso de MA de Producto</t>
   </si>
   <si>
-    <t>Que las Metricas esten mal elaboradas</t>
-  </si>
-  <si>
     <t>Que no se cumplan las fechas establecidas en el Cronograma</t>
   </si>
   <si>
     <t xml:space="preserve">Consultar con el Profesor para recibir reforzamiento sobre estos temas en clase </t>
   </si>
   <si>
-    <t>Establecer seguimiento respectivo y asi mismo estar en constante evaluacion de personal inducido</t>
-  </si>
-  <si>
     <t>Realizar solicitud de Informe de Auditoria de CM</t>
   </si>
   <si>
-    <t>Estudiar durante las noches y priorizar objetivos , dejar de lado fines de semana de diversion y avanzar lo establecido.</t>
-  </si>
-  <si>
     <t>Hacer seguimiento a Cronograma y verificar que se este avanzando conforme a lo estipulado</t>
   </si>
   <si>
-    <t>Demora en elaboracion de Software</t>
-  </si>
-  <si>
-    <t>Pesimo control y seguimiento de Avance del proyecto</t>
-  </si>
-  <si>
-    <t>Insatisfaccion del Cliente</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
@@ -555,9 +483,6 @@
     <t>Análisis</t>
   </si>
   <si>
-    <t>Área/Linea</t>
-  </si>
-  <si>
     <t>HISTORIAL DE LAS REVISIONES</t>
   </si>
   <si>
@@ -607,12 +532,87 @@
   </si>
   <si>
     <t>Martes 12 de Noviembre de 2015</t>
+  </si>
+  <si>
+    <t>REGRI - REGISTRO DE RIESGOS PROYECTO UTP-GPS ALARM</t>
+  </si>
+  <si>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>Que no termine a tiempo el proyecto por falta de experiencia en la Gestión de Procesos usando la metodología CMMI</t>
+  </si>
+  <si>
+    <t>Prestar atención a clases, llegar temprano y anotar a las recomendaciones del profesor referente a los procesos de gestión usando la metodología CMMI</t>
+  </si>
+  <si>
+    <t>Estudiar por otros medios el desarrollo de Android, tutoriales, guías, etc. Programar una capacitación para el personal que tiene dificultades en el manejo de esta plataforma de software.</t>
+  </si>
+  <si>
+    <t>Falta de Coordinación y Trabajo en Grupo</t>
+  </si>
+  <si>
+    <t>Int - La tecnología</t>
+  </si>
+  <si>
+    <t>Contar con equipos de contingencia (laptops personales)    Usar Laboratorio de la UTP</t>
+  </si>
+  <si>
+    <t>Señales de inconformidad por parte del cliente, en reuniones externas</t>
+  </si>
+  <si>
+    <t>Pérdida de documentación referente al proyecto</t>
+  </si>
+  <si>
+    <t>Desapareció</t>
+  </si>
+  <si>
+    <t>Que no se lleve a cabo el proyecto por falta de experiencia en documentación de Proyecto</t>
+  </si>
+  <si>
+    <t>Buscar Información sobre los Procesos CMMI y hacer las consultas del caso al Profesor del Curso</t>
+  </si>
+  <si>
+    <t>Documentos no cumplen estándares de calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la Inducción de Personal no cumpla las expectativas </t>
+  </si>
+  <si>
+    <t>Establecer seguimiento respectivo y así mismo estar en constante evaluación de personal inducido</t>
+  </si>
+  <si>
+    <t>Demora en elaboración de Software</t>
+  </si>
+  <si>
+    <t>Estudiar durante las noches y priorizar objetivos , dejar de lado fines de semana de diversión y avanzar lo establecido.</t>
+  </si>
+  <si>
+    <t>Que las Métricas estén mal elaboradas</t>
+  </si>
+  <si>
+    <t>Pésimo control y seguimiento de Avance del proyecto</t>
+  </si>
+  <si>
+    <t>Insatisfacción del Cliente</t>
+  </si>
+  <si>
+    <t>Área/Línea</t>
+  </si>
+  <si>
+    <t>El riesgo de estar plenamente identificado para poder monitorearlo</t>
+  </si>
+  <si>
+    <t>Ext - Tecnología</t>
+  </si>
+  <si>
+    <t>Categoría Origen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm/yyyy"/>
@@ -2083,6 +2083,9 @@
     <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="45" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2095,9 +2098,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,7 +2223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="3"/>
     <cellStyle name="Cancel_bORRAR 7.0.1.23.R05 Plantilla de Registro de Riesgos" xfId="4"/>
@@ -2846,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
@@ -2870,15 +2870,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="103"/>
-      <c r="B2" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="B2" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9">
@@ -2895,134 +2895,134 @@
     <row r="4" spans="1:9" ht="24">
       <c r="A4" s="103"/>
       <c r="B4" s="106" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F4" s="106" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="G4" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="106" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="103"/>
-      <c r="B5" s="107">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="109">
+      <c r="C5" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="110">
         <v>42271</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="107" t="s">
-        <v>174</v>
+      <c r="E5" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>149</v>
       </c>
       <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="103"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="105"/>
-      <c r="B7" s="107">
+      <c r="B7" s="108">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="109">
+      <c r="C7" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="110">
         <v>42297</v>
       </c>
-      <c r="E7" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="107" t="s">
-        <v>174</v>
+      <c r="E7" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="108" t="s">
+        <v>149</v>
       </c>
       <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="105"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
       <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="104"/>
-      <c r="B9" s="107">
+      <c r="B9" s="108">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="109">
+      <c r="C9" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="110">
         <v>42320</v>
       </c>
-      <c r="E9" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>174</v>
+      <c r="E9" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="108" t="s">
+        <v>149</v>
       </c>
       <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="104"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9">
@@ -3082,14 +3082,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3104,6 +3096,14 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,8 +3118,8 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:F10"/>
+      <pane ySplit="14" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -3140,7 +3140,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -3184,7 +3184,7 @@
     <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:12" s="91" customFormat="1" ht="20.25">
       <c r="A6" s="124" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -3213,12 +3213,12 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="127" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
       <c r="D8" s="118" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E8" s="119"/>
       <c r="F8" s="120"/>
@@ -3230,12 +3230,12 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="127" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B9" s="128"/>
       <c r="C9" s="129"/>
       <c r="D9" s="118" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E9" s="119"/>
       <c r="F9" s="120"/>
@@ -3246,12 +3246,12 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="130" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="131"/>
       <c r="C10" s="132"/>
       <c r="D10" s="115" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="117"/>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1">
       <c r="A11" s="130" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="131"/>
       <c r="C11" s="132"/>
@@ -3286,62 +3286,62 @@
     </row>
     <row r="13" spans="1:12" s="75" customFormat="1" ht="14.25">
       <c r="A13" s="112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="113"/>
       <c r="C13" s="113"/>
       <c r="D13" s="112" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E13" s="113"/>
       <c r="F13" s="114"/>
       <c r="G13" s="112" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H13" s="113"/>
       <c r="I13" s="114"/>
       <c r="J13" s="133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="134"/>
       <c r="L13" s="134"/>
     </row>
     <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B14" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>100</v>
-      </c>
       <c r="I14" s="78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L14" s="78" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="33.75">
@@ -3349,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="83">
         <v>0.3</v>
@@ -3365,20 +3365,20 @@
         <v>1.2</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J15" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
@@ -3386,10 +3386,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="83">
         <v>0.3</v>
@@ -3402,20 +3402,20 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J16" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
@@ -3423,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="98">
         <v>0.1</v>
@@ -3439,20 +3439,20 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="99" t="s">
-        <v>110</v>
-      </c>
       <c r="I17" s="97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J17" s="101" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="99"/>
       <c r="L17" s="100" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39" customHeight="1">
@@ -3460,10 +3460,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="83">
         <v>0.1</v>
@@ -3476,20 +3476,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J18" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="102" customFormat="1" ht="42" customHeight="1">
@@ -3497,10 +3497,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="98">
         <v>0.3</v>
@@ -3513,20 +3513,20 @@
         <v>0.6</v>
       </c>
       <c r="G19" s="99" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H19" s="99" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="J19" s="101" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="99"/>
       <c r="L19" s="100" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
@@ -3534,10 +3534,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D20" s="98">
         <v>0.1</v>
@@ -3550,20 +3550,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="I20" s="100" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J20" s="101" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="99"/>
       <c r="L20" s="100" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="39" customHeight="1">
@@ -3571,10 +3571,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" s="83">
         <v>0.3</v>
@@ -3587,20 +3587,20 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" customHeight="1">
@@ -3608,10 +3608,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="83">
         <v>0.1</v>
@@ -3624,20 +3624,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I22" s="87" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="82"/>
       <c r="L22" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36" customHeight="1">
@@ -3645,10 +3645,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="83">
         <v>0.3</v>
@@ -3661,20 +3661,20 @@
         <v>1.5</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I23" s="87" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J23" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
@@ -3682,10 +3682,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="98">
         <v>0.1</v>
@@ -3698,20 +3698,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G24" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="100" t="s">
-        <v>112</v>
-      </c>
       <c r="J24" s="101" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="K24" s="99"/>
       <c r="L24" s="100" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27" customHeight="1">
@@ -3719,10 +3719,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="83">
         <v>0.1</v>
@@ -3735,20 +3735,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="I25" s="87" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="J25" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="87" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="22.5">
@@ -3756,10 +3756,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="83">
         <v>0.3</v>
@@ -3772,20 +3772,20 @@
         <v>0.6</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="J26" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="22.5">
@@ -3793,10 +3793,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="83">
         <v>0.3</v>
@@ -3809,20 +3809,20 @@
         <v>0.3</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="I27" s="87" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J27" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="22.5">
@@ -3830,10 +3830,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="83">
         <v>0.3</v>
@@ -3846,20 +3846,20 @@
         <v>0.3</v>
       </c>
       <c r="G28" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="87" t="s">
         <v>104</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="87" t="s">
-        <v>112</v>
       </c>
       <c r="J28" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="22.5">
@@ -3867,10 +3867,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="83">
         <v>0.3</v>
@@ -3883,20 +3883,20 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="I29" s="87" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J29" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="22.5">
@@ -3904,10 +3904,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="83">
         <v>0.3</v>
@@ -3920,20 +3920,20 @@
         <v>0.6</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J30" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="82"/>
       <c r="L30" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="22.5">
@@ -3941,10 +3941,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="83">
         <v>0.3</v>
@@ -3957,20 +3957,20 @@
         <v>0.6</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H31" s="82" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J31" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="82"/>
       <c r="L31" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="22.5">
@@ -3978,10 +3978,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="83">
         <v>0.3</v>
@@ -3994,20 +3994,20 @@
         <v>0.6</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H32" s="82" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J32" s="86" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="87" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4073,7 @@
   <dimension ref="B1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -4099,7 +4099,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="B2" s="135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="136"/>
       <c r="D2" s="136"/>
@@ -4107,11 +4107,11 @@
       <c r="F2" s="136"/>
       <c r="G2" s="136"/>
       <c r="H2" s="73" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="137" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="138"/>
       <c r="R2" s="138"/>
@@ -4121,46 +4121,46 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="L3" s="149" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" s="150"/>
       <c r="N3" s="151"/>
       <c r="O3" s="21"/>
       <c r="P3" s="140" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="141"/>
       <c r="R3" s="59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S3" s="60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="22.5" customHeight="1" thickBot="1">
       <c r="L4" s="147" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M4" s="148"/>
       <c r="N4" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="142"/>
       <c r="Q4" s="143"/>
       <c r="R4" s="47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S4" s="61" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1">
       <c r="C5" s="144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22">
         <v>0.9</v>
@@ -4171,32 +4171,32 @@
       <c r="I5" s="28"/>
       <c r="J5" s="29"/>
       <c r="L5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="44" t="s">
         <v>18</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>19</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R5" s="50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1">
       <c r="C6" s="145"/>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="23">
         <v>0.7</v>
@@ -4207,32 +4207,32 @@
       <c r="I6" s="1"/>
       <c r="J6" s="31"/>
       <c r="L6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="45" t="s">
         <v>20</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>21</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S6" s="63" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="19.5" customHeight="1">
       <c r="C7" s="145"/>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="23">
         <v>0.5</v>
@@ -4243,32 +4243,32 @@
       <c r="I7" s="67"/>
       <c r="J7" s="31"/>
       <c r="L7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="45" t="s">
         <v>22</v>
-      </c>
-      <c r="M7" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>23</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S7" s="63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="29.25" customHeight="1">
       <c r="C8" s="145"/>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="23">
         <v>0.3</v>
@@ -4279,32 +4279,32 @@
       <c r="I8" s="67"/>
       <c r="J8" s="31"/>
       <c r="L8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="45" t="s">
         <v>24</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8" s="51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S8" s="63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="29.25" customHeight="1" thickBot="1">
       <c r="C9" s="146"/>
       <c r="D9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="24">
         <v>0.1</v>
@@ -4315,26 +4315,26 @@
       <c r="I9" s="33"/>
       <c r="J9" s="94"/>
       <c r="L9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>26</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>27</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S9" s="64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -4358,19 +4358,19 @@
     </row>
     <row r="11" spans="2:19" ht="23.25" customHeight="1">
       <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="J11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="7.5" customHeight="1" thickBot="1">
@@ -4382,7 +4382,7 @@
     </row>
     <row r="13" spans="2:19" ht="12" thickBot="1">
       <c r="F13" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -4395,33 +4395,33 @@
     <row r="15" spans="2:19">
       <c r="F15" s="16"/>
       <c r="G15" s="70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J15" s="70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="F17" s="65"/>
       <c r="G17" s="70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="12" thickBot="1">
       <c r="F19" s="33"/>
       <c r="G19" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="53.25" customHeight="1">
       <c r="B21" s="135" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="136"/>
       <c r="D21" s="136"/>
@@ -4429,7 +4429,7 @@
       <c r="F21" s="136"/>
       <c r="G21" s="136"/>
       <c r="H21" s="72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4455,8 +4455,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:G7125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4473,64 +4473,64 @@
     <row r="2" spans="2:7" s="19" customFormat="1">
       <c r="B2" s="35"/>
       <c r="C2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="19" customFormat="1">
       <c r="B3" s="35"/>
       <c r="C3" s="71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="19" customFormat="1">
       <c r="B4" s="35"/>
       <c r="C4" s="71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="19" customFormat="1">
       <c r="B5" s="35"/>
       <c r="C5" s="71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="19" customFormat="1">
       <c r="B6" s="35"/>
       <c r="C6" s="71" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="19" customFormat="1">
       <c r="B7" s="35"/>
       <c r="C7" s="71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="19" customFormat="1">
@@ -4543,7 +4543,7 @@
     <row r="9" spans="2:7" s="19" customFormat="1">
       <c r="B9" s="35"/>
       <c r="C9" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G9" s="74" t="s">
         <v>1</v>
@@ -4552,7 +4552,7 @@
     <row r="10" spans="2:7" s="19" customFormat="1">
       <c r="B10" s="35"/>
       <c r="C10" s="71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>2</v>
@@ -4561,7 +4561,7 @@
     <row r="11" spans="2:7" s="19" customFormat="1">
       <c r="B11" s="35"/>
       <c r="C11" s="71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>3</v>
@@ -4570,13 +4570,13 @@
     <row r="12" spans="2:7" s="19" customFormat="1">
       <c r="B12" s="35"/>
       <c r="C12" s="71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="19" customFormat="1">
       <c r="B13" s="35"/>
       <c r="C13" s="71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>5</v>
@@ -4593,13 +4593,13 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="G15" s="38" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="19" customFormat="1">
       <c r="B16" s="35"/>
       <c r="C16" s="20" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>4</v>
@@ -4608,76 +4608,76 @@
     <row r="17" spans="2:7" s="19" customFormat="1">
       <c r="B17" s="35"/>
       <c r="C17" s="74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="19" customFormat="1">
       <c r="B18" s="35"/>
       <c r="C18" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="19" customFormat="1">
       <c r="B19" s="35"/>
       <c r="C19" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="19" customFormat="1">
       <c r="B20" s="35"/>
       <c r="C20" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="19" customFormat="1">
       <c r="B21" s="35"/>
       <c r="C21" s="38" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="19" customFormat="1">
       <c r="B22" s="35"/>
       <c r="C22" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="19" customFormat="1">
       <c r="B23" s="35"/>
       <c r="C23" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="19" customFormat="1">
       <c r="B24" s="35"/>
       <c r="C24" s="38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G24" s="76" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="19" customFormat="1">
       <c r="B25" s="35"/>
       <c r="C25" s="38" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="G25" s="76" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:7" s="19" customFormat="1">
@@ -4685,12 +4685,12 @@
     </row>
     <row r="27" spans="2:7" s="19" customFormat="1">
       <c r="G27" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="19" customFormat="1">
       <c r="G28" s="76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="19" customFormat="1"/>

--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="432" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="432"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Sit_estrategia">Tablas!$G$9:$G$11</definedName>
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -510,9 +510,6 @@
     <t>Roger Apaéstegui</t>
   </si>
   <si>
-    <t>Version Preliminar Aprobada por QA</t>
-  </si>
-  <si>
     <t>Aprobado</t>
   </si>
   <si>
@@ -525,15 +522,9 @@
     <t>Version Preliminar</t>
   </si>
   <si>
-    <t>En Revisión</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>Martes 12 de Noviembre de 2015</t>
-  </si>
-  <si>
     <t>REGRI - REGISTRO DE RIESGOS PROYECTO UTP-GPS ALARM</t>
   </si>
   <si>
@@ -607,12 +598,21 @@
   </si>
   <si>
     <t>Categoría Origen</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Version Preliminar Revisada por QA</t>
+  </si>
+  <si>
+    <t>Jueves 19 de Noviembre de 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm/yyyy"/>
@@ -2083,9 +2083,6 @@
     <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="45" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2098,6 +2095,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,7 +2223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Buena" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="3"/>
     <cellStyle name="Cancel_bORRAR 7.0.1.23.R05 Plantilla de Registro de Riesgos" xfId="4"/>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2870,15 +2870,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="103"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9">
@@ -2919,110 +2919,110 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="103"/>
-      <c r="B5" s="108">
+      <c r="B5" s="107">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="109">
         <v>42271</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="H5" s="107" t="s">
         <v>148</v>
-      </c>
-      <c r="H5" s="108" t="s">
-        <v>149</v>
       </c>
       <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="103"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="105"/>
-      <c r="B7" s="108">
+      <c r="B7" s="107">
         <v>2</v>
       </c>
-      <c r="C7" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="110">
+      <c r="C7" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="109">
         <v>42297</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="H7" s="107" t="s">
         <v>148</v>
-      </c>
-      <c r="H7" s="108" t="s">
-        <v>149</v>
       </c>
       <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="105"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="104"/>
-      <c r="B9" s="108">
+      <c r="B9" s="107">
         <v>3</v>
       </c>
-      <c r="C9" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="110">
-        <v>42320</v>
-      </c>
-      <c r="E9" s="108" t="s">
+      <c r="C9" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="109">
+        <v>42327</v>
+      </c>
+      <c r="E9" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="108" t="s">
-        <v>149</v>
+      <c r="F9" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>148</v>
       </c>
       <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="104"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
       <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9">
@@ -3082,6 +3082,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3096,14 +3104,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,8 +3118,8 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -3184,7 +3184,7 @@
     <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:12" s="91" customFormat="1" ht="20.25">
       <c r="A6" s="124" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="127" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
@@ -3251,7 +3251,7 @@
       <c r="B10" s="131"/>
       <c r="C10" s="132"/>
       <c r="D10" s="115" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="117"/>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>88</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="84" t="s">
         <v>34</v>
@@ -3368,7 +3368,7 @@
         <v>125</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I15" s="87" t="s">
         <v>117</v>
@@ -3479,7 +3479,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I18" s="84" t="s">
         <v>116</v>
@@ -3519,7 +3519,7 @@
         <v>115</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J19" s="101" t="s">
         <v>6</v>
@@ -3537,7 +3537,7 @@
         <v>113</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D20" s="98">
         <v>0.1</v>
@@ -3553,7 +3553,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I20" s="100" t="s">
         <v>98</v>
@@ -3667,7 +3667,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J23" s="86" t="s">
         <v>6</v>
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="97" t="s">
         <v>36</v>
@@ -3707,7 +3707,7 @@
         <v>104</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="99"/>
       <c r="L24" s="100" t="s">
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>34</v>
@@ -3738,10 +3738,10 @@
         <v>97</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I25" s="87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J25" s="86" t="s">
         <v>6</v>
@@ -3778,7 +3778,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J26" s="86" t="s">
         <v>6</v>
@@ -3793,7 +3793,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>36</v>
@@ -3812,10 +3812,10 @@
         <v>96</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I27" s="87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J27" s="86" t="s">
         <v>6</v>
@@ -3886,7 +3886,7 @@
         <v>101</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I29" s="87" t="s">
         <v>117</v>
@@ -3941,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" s="84" t="s">
         <v>34</v>
@@ -3963,7 +3963,7 @@
         <v>131</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J31" s="86" t="s">
         <v>6</v>
@@ -4000,7 +4000,7 @@
         <v>133</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J32" s="86" t="s">
         <v>6</v>
@@ -4416,7 +4416,7 @@
         <v>56</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="53.25" customHeight="1">
@@ -4455,7 +4455,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:G7125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4593,13 +4593,13 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="G15" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="19" customFormat="1">
       <c r="B16" s="35"/>
       <c r="C16" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>4</v>
@@ -4638,7 +4638,7 @@
     <row r="21" spans="2:7" s="19" customFormat="1">
       <c r="B21" s="35"/>
       <c r="C21" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>78</v>
@@ -4674,7 +4674,7 @@
     <row r="25" spans="2:7" s="19" customFormat="1">
       <c r="B25" s="35"/>
       <c r="C25" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="76" t="s">
         <v>82</v>

--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
@@ -519,9 +519,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>Version Preliminar</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>Jueves 19 de Noviembre de 2015</t>
+  </si>
+  <si>
+    <t>Version Final pendiente de Aprobación</t>
   </si>
 </sst>
 </file>
@@ -2083,6 +2083,9 @@
     <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="45" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2094,9 +2097,6 @@
     <xf numFmtId="14" fontId="44" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2870,15 +2870,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="103"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9">
@@ -2919,110 +2919,110 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="103"/>
-      <c r="B5" s="107">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="110">
         <v>42271</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="108" t="s">
         <v>148</v>
       </c>
       <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="103"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="105"/>
-      <c r="B7" s="107">
+      <c r="B7" s="108">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="110">
         <v>42297</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="107" t="s">
+      <c r="F7" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="108" t="s">
         <v>148</v>
       </c>
       <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="105"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
       <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="104"/>
-      <c r="B9" s="107">
+      <c r="B9" s="108">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="109">
+      <c r="C9" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="110">
         <v>42327</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="107" t="s">
+      <c r="F9" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="108" t="s">
         <v>148</v>
       </c>
       <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="104"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9">
@@ -3082,14 +3082,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3104,6 +3096,14 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3184,7 +3184,7 @@
     <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:12" s="91" customFormat="1" ht="20.25">
       <c r="A6" s="124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
@@ -3251,7 +3251,7 @@
       <c r="B10" s="131"/>
       <c r="C10" s="132"/>
       <c r="D10" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="117"/>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>88</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="84" t="s">
         <v>34</v>
@@ -3368,7 +3368,7 @@
         <v>125</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="87" t="s">
         <v>117</v>
@@ -3479,7 +3479,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I18" s="84" t="s">
         <v>116</v>
@@ -3519,7 +3519,7 @@
         <v>115</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19" s="101" t="s">
         <v>6</v>
@@ -3537,7 +3537,7 @@
         <v>113</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="98">
         <v>0.1</v>
@@ -3553,7 +3553,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I20" s="100" t="s">
         <v>98</v>
@@ -3667,7 +3667,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="86" t="s">
         <v>6</v>
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="97" t="s">
         <v>36</v>
@@ -3707,7 +3707,7 @@
         <v>104</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K24" s="99"/>
       <c r="L24" s="100" t="s">
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>34</v>
@@ -3738,10 +3738,10 @@
         <v>97</v>
       </c>
       <c r="H25" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="87" t="s">
         <v>164</v>
-      </c>
-      <c r="I25" s="87" t="s">
-        <v>165</v>
       </c>
       <c r="J25" s="86" t="s">
         <v>6</v>
@@ -3778,7 +3778,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="86" t="s">
         <v>6</v>
@@ -3793,7 +3793,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>36</v>
@@ -3812,10 +3812,10 @@
         <v>96</v>
       </c>
       <c r="H27" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="87" t="s">
         <v>167</v>
-      </c>
-      <c r="I27" s="87" t="s">
-        <v>168</v>
       </c>
       <c r="J27" s="86" t="s">
         <v>6</v>
@@ -3886,7 +3886,7 @@
         <v>101</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="87" t="s">
         <v>117</v>
@@ -3941,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="84" t="s">
         <v>34</v>
@@ -3963,7 +3963,7 @@
         <v>131</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J31" s="86" t="s">
         <v>6</v>
@@ -4000,7 +4000,7 @@
         <v>133</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J32" s="86" t="s">
         <v>6</v>
@@ -4416,7 +4416,7 @@
         <v>56</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="53.25" customHeight="1">
@@ -4593,13 +4593,13 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="G15" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="19" customFormat="1">
       <c r="B16" s="35"/>
       <c r="C16" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>4</v>
@@ -4638,7 +4638,7 @@
     <row r="21" spans="2:7" s="19" customFormat="1">
       <c r="B21" s="35"/>
       <c r="C21" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>78</v>
@@ -4674,7 +4674,7 @@
     <row r="25" spans="2:7" s="19" customFormat="1">
       <c r="B25" s="35"/>
       <c r="C25" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="76" t="s">
         <v>82</v>

--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.2_2015.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="432"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="6" r:id="rId1"/>
     <sheet name="Matriz de Riesgos" sheetId="1" r:id="rId2"/>
-    <sheet name="Definiciones" sheetId="3" r:id="rId3"/>
-    <sheet name="Tablas" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId3"/>
+    <sheet name="Definiciones" sheetId="3" r:id="rId4"/>
+    <sheet name="Tablas" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Matriz de Riesgos'!$A$14:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tablas!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tablas!#REF!</definedName>
     <definedName name="asf">[1]Tablas!$C$3:$C$7</definedName>
     <definedName name="Categoria_Origen">Tablas!$C$17:$C$25</definedName>
     <definedName name="Est_riesgo">Tablas!$G$14:$G$16</definedName>
@@ -36,7 +37,7 @@
     <definedName name="Sit_estrategia">Tablas!$G$9:$G$11</definedName>
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -612,7 +613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm/yyyy"/>
@@ -910,7 +911,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,12 +1162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,6 +2051,150 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="45" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,162 +2207,18 @@
     <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="3"/>
     <cellStyle name="Cancel_bORRAR 7.0.1.23.R05 Plantilla de Registro de Riesgos" xfId="4"/>
@@ -2846,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2858,230 +2853,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="103"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="104"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="24">
-      <c r="A4" s="103"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="104"/>
+      <c r="I4" s="97"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="103"/>
-      <c r="B5" s="108">
+      <c r="A5" s="96"/>
+      <c r="B5" s="100">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="102">
         <v>42271</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="104"/>
+      <c r="I5" s="97"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="103"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="104"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="97"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="105"/>
-      <c r="B7" s="108">
+      <c r="A7" s="98"/>
+      <c r="B7" s="100">
         <v>2</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="102">
         <v>42297</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="104"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="105"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="104"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="104"/>
-      <c r="B9" s="108">
+      <c r="A9" s="97"/>
+      <c r="B9" s="100">
         <v>3</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="102">
         <v>42327</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="104"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="104"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3096,14 +3099,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3117,9 +3112,9 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -3139,32 +3134,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
       <c r="G1" s="90"/>
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
       <c r="G2" s="90"/>
       <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
       <c r="G3" s="90"/>
@@ -3172,10 +3167,10 @@
       <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="92"/>
       <c r="F4" s="92"/>
       <c r="G4" s="90"/>
@@ -3183,19 +3178,19 @@
     </row>
     <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:12" s="91" customFormat="1" ht="20.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:12" ht="9" customHeight="1">
@@ -3212,16 +3207,16 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="118" t="s">
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -3229,49 +3224,49 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="118" t="s">
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="79"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="115" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="80"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="121">
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="114">
         <f>AVERAGE(F15:F16,F18,F21,F22,F23,F25,F26,F27,F28,F29,F30,F31,F32)/4.5</f>
-        <v>0.14761904761904757</v>
-      </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
+        <v>8.0952380952380942E-2</v>
+      </c>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="81"/>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
@@ -3285,26 +3280,26 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:12" s="75" customFormat="1" ht="14.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="112" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="112" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="133" t="s">
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
     </row>
     <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
@@ -3355,14 +3350,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="84">
         <v>4</v>
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15:F20" si="0">D15*E15</f>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="82" t="s">
         <v>125</v>
@@ -3374,7 +3369,7 @@
         <v>117</v>
       </c>
       <c r="J15" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="87" t="s">
@@ -3392,14 +3387,14 @@
         <v>36</v>
       </c>
       <c r="D16" s="83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="84">
         <v>3</v>
       </c>
       <c r="F16" s="84">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
       <c r="G16" s="82" t="s">
         <v>96</v>
@@ -3411,47 +3406,47 @@
         <v>98</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="87" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="96">
+    <row r="17" spans="1:12" s="151" customFormat="1" ht="27" customHeight="1">
+      <c r="A17" s="145">
         <v>3</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="97">
+      <c r="D17" s="83">
+        <v>0</v>
+      </c>
+      <c r="E17" s="146">
         <v>5</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="146">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H17" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100" t="s">
+      <c r="J17" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="148"/>
+      <c r="L17" s="150" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3466,14 +3461,14 @@
         <v>36</v>
       </c>
       <c r="D18" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="84">
         <v>3</v>
       </c>
       <c r="F18" s="84">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G18" s="82" t="s">
         <v>97</v>
@@ -3485,84 +3480,84 @@
         <v>116</v>
       </c>
       <c r="J18" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="87" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="102" customFormat="1" ht="42" customHeight="1">
-      <c r="A19" s="96">
+    <row r="19" spans="1:12" s="151" customFormat="1" ht="42" customHeight="1">
+      <c r="A19" s="145">
         <v>5</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="98">
-        <v>0.3</v>
-      </c>
-      <c r="E19" s="97">
+      <c r="D19" s="83">
+        <v>0</v>
+      </c>
+      <c r="E19" s="146">
         <v>2</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="146">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G19" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="99" t="s">
+      <c r="H19" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="100" t="s">
+      <c r="I19" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="148"/>
+      <c r="L19" s="150" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="151" customFormat="1" ht="27" customHeight="1">
+      <c r="A20" s="145">
         <v>6</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A20" s="96">
-        <v>6</v>
-      </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="147">
         <v>0.1</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="146">
         <v>3</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="146">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="99" t="s">
+      <c r="H20" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="100" t="s">
+      <c r="I20" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="J20" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100" t="s">
+      <c r="K20" s="148"/>
+      <c r="L20" s="150" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3677,40 +3672,40 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A24" s="96">
+    <row r="24" spans="1:12" s="151" customFormat="1" ht="27" customHeight="1">
+      <c r="A24" s="145">
         <v>10</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="E24" s="97">
+      <c r="D24" s="83">
+        <v>0</v>
+      </c>
+      <c r="E24" s="146">
         <v>3</v>
       </c>
-      <c r="F24" s="97">
+      <c r="F24" s="146">
         <f>D24*E24</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G24" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="100" t="s">
+      <c r="I24" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="101" t="s">
+      <c r="J24" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100" t="s">
+      <c r="K24" s="148"/>
+      <c r="L24" s="150" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3799,14 +3794,14 @@
         <v>36</v>
       </c>
       <c r="D27" s="83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="84">
         <v>1</v>
       </c>
       <c r="F27" s="84">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="82" t="s">
         <v>96</v>
@@ -3818,7 +3813,7 @@
         <v>167</v>
       </c>
       <c r="J27" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="87" t="s">
@@ -3873,14 +3868,14 @@
         <v>34</v>
       </c>
       <c r="D29" s="83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="84">
         <v>3</v>
       </c>
       <c r="F29" s="84">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
       <c r="G29" s="82" t="s">
         <v>101</v>
@@ -3892,7 +3887,7 @@
         <v>117</v>
       </c>
       <c r="J29" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="87" t="s">
@@ -3984,14 +3979,14 @@
         <v>36</v>
       </c>
       <c r="D32" s="83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="84">
         <v>2</v>
       </c>
       <c r="F32" s="84">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G32" s="82" t="s">
         <v>96</v>
@@ -4003,7 +3998,7 @@
         <v>171</v>
       </c>
       <c r="J32" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="87" t="s">
@@ -4037,7 +4032,7 @@
       <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C32">
       <formula1>Categoria_Origen</formula1>
     </dataValidation>
@@ -4047,7 +4042,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>Linea_Servicio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D23 D25:D26 D28 D30:D31">
       <formula1>"0.1,0.3,0.5,0.7,0.9"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E32">
@@ -4058,6 +4053,9 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F17 F19:F32"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D19 D24 D27 D29 D32">
+      <formula1>"0,0.1,0.3,0.5,0.7,0.9"</formula1>
+    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.44" top="0.68" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -4068,6 +4066,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:S21"/>
@@ -4098,38 +4108,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
       <c r="H2" s="73" t="s">
         <v>61</v>
       </c>
       <c r="O2" s="21"/>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="139"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="L3" s="149" t="s">
+      <c r="L3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="140" t="s">
+      <c r="P3" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="141"/>
+      <c r="Q3" s="134"/>
       <c r="R3" s="59" t="s">
         <v>42</v>
       </c>
@@ -4138,16 +4148,16 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="22.5" customHeight="1" thickBot="1">
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="148"/>
+      <c r="M4" s="141"/>
       <c r="N4" s="43" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="21"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="136"/>
       <c r="R4" s="47" t="s">
         <v>41</v>
       </c>
@@ -4156,7 +4166,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="137" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4194,7 +4204,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1">
-      <c r="C6" s="145"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
@@ -4230,7 +4240,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="19.5" customHeight="1">
-      <c r="C7" s="145"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
@@ -4266,7 +4276,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="29.25" customHeight="1">
-      <c r="C8" s="145"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
@@ -4302,7 +4312,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C9" s="146"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
@@ -4420,14 +4430,14 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="53.25" customHeight="1">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
       <c r="H21" s="72" t="s">
         <v>60</v>
       </c>
@@ -4450,13 +4460,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:G7125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
